--- a/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
+++ b/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
@@ -16,7 +16,7 @@
     <t>% VariaciónPersonal</t>
   </si>
   <si>
-    <t>N Poliza</t>
+    <t>N Nit</t>
   </si>
   <si>
     <t>Nombre del cliente</t>
@@ -444,9 +444,6 @@
       <c r="A2">
         <v>66.66666666666666</v>
       </c>
-      <c r="B2">
-        <v>1234567890</v>
-      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>

--- a/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
+++ b/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
@@ -444,6 +444,9 @@
       <c r="A2">
         <v>66.66666666666666</v>
       </c>
+      <c r="B2">
+        <v>1234567890</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>

--- a/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
+++ b/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>% VariaciónPersonal</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Mes</t>
   </si>
   <si>
+    <t>Sede</t>
+  </si>
+  <si>
     <t>pedro</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>Enero</t>
+  </si>
+  <si>
+    <t>Pereira</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +445,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>66.66666666666666</v>
       </c>
@@ -448,16 +457,19 @@
         <v>1234567890</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
+++ b/src/uploads/excelEducacion/resultados_Modulo Educacion.xlsx
@@ -43,7 +43,7 @@
     <t>L paez</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>Febrero</t>
   </si>
   <si>
     <t>Pereira</t>
@@ -454,7 +454,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="B2">
-        <v>1234567890</v>
+        <v>12345678445</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
